--- a/Thesis/ReportProducts.xlsx
+++ b/Thesis/ReportProducts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\source\repos\Thesis\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\source\repos\Otiko\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA07D3-B145-45F2-ACEF-B6EEE5072734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEDEBB-0BC1-4F61-9628-EB08E6F8ED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="450" windowWidth="23265" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="450" windowWidth="23265" windowHeight="15300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="12" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Дата</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Информационная панель для анализа продаж</t>
+  </si>
+  <si>
+    <t>Сумма по полю Количество</t>
   </si>
 </sst>
 </file>
@@ -391,6 +394,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -444,7 +503,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32BB-48FC-B370-67DFB09A2F7B}"/>
+              <c16:uniqueId val="{00000001-D85A-478D-A6E3-72DA15118DEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -823,6 +882,148 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -1310,6 +1511,148 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1764,6 +2107,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1814,7 +2213,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0059-49D6-9A43-A32B60F3C175}"/>
+              <c16:uniqueId val="{00000001-02AF-4B41-B97A-A5331C9D55E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4379,7 +4778,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mi" refreshedDate="44620.638948842592" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="198" xr:uid="{2B1AED20-F2D7-4CC1-83AD-145EBC0E83C4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mi" refreshedDate="44636.841607060182" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="198" xr:uid="{2B1AED20-F2D7-4CC1-83AD-145EBC0E83C4}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -6210,7 +6609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C85610B-CBD6-4171-A00A-1A963D09CA1E}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C85610B-CBD6-4171-A00A-1A963D09CA1E}" name="Сводная таблица1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B22:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6243,7 +6642,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1233B9C7-C0E7-4D16-BC9A-69BE79B7238A}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1233B9C7-C0E7-4D16-BC9A-69BE79B7238A}" name="Сводная таблица2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A2:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6274,10 +6673,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю Количество" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Количество" fld="4" baseField="1" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="1" format="1" series="1">
+    <chartFormat chart="1" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6300,7 +6699,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BAFA771-96EA-4ACD-85A3-DEBFE8BC67FE}" name="Сводная таблица3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BAFA771-96EA-4ACD-85A3-DEBFE8BC67FE}" name="Сводная таблица3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6344,10 +6743,19 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю Количество" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Количество" fld="4" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="2" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6373,7 +6781,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EF2E095-20B6-4641-901F-8778FD11250B}" name="Сводная таблица4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EF2E095-20B6-4641-901F-8778FD11250B}" name="Сводная таблица4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6417,10 +6825,19 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю Количество" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Количество" fld="4" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="2" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6446,7 +6863,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B9B598F-5D81-40DF-9897-E4523DEE5FD6}" name="Сводная таблица5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B9B598F-5D81-40DF-9897-E4523DEE5FD6}" name="Сводная таблица5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6477,10 +6894,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю Количество" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Количество" fld="4" baseField="6" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="1" format="1" series="1">
+    <chartFormat chart="1" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6791,7 +7208,7 @@
   <dimension ref="B1:T42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9035,14 +9452,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D8BA6F-FC28-4AEC-BAC8-EDC2BC1F0FAA}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9050,7 +9467,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9080,14 +9497,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -9130,14 +9547,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -9177,14 +9594,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB60D0F-84B3-4890-988F-78FE0BE1E77B}">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9192,7 +9609,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
